--- a/addons-dev/dgf_auction/data/dgf.auction.stage.xlsx
+++ b/addons-dev/dgf_auction/data/dgf.auction.stage.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\coding\odoo\project\dgf\liquidation-dev\addons-dev\dgf_auction\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Sequence</t>
   </si>
@@ -42,64 +37,61 @@
     <t>Прийняття заяв на участь</t>
   </si>
   <si>
+    <t>active_rectification</t>
+  </si>
+  <si>
+    <t>Період редагування</t>
+  </si>
+  <si>
     <t>active_auction</t>
   </si>
   <si>
     <t>Аукціон</t>
   </si>
   <si>
+    <t>active_qualification</t>
+  </si>
+  <si>
+    <t>Очікується опублікування протоколу</t>
+  </si>
+  <si>
+    <t>active_awarded</t>
+  </si>
+  <si>
+    <t>Очікується підписання договору</t>
+  </si>
+  <si>
+    <t>pending_payment</t>
+  </si>
+  <si>
+    <t>Очікується оплата</t>
+  </si>
+  <si>
+    <t>pending_admission</t>
+  </si>
+  <si>
+    <t>Очікується рішення про викуп</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>Аукціон завершено. Договір підписано</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>Аукціон відмінено</t>
+  </si>
+  <si>
     <t>unsuccessful</t>
   </si>
   <si>
     <t>Аукціон не відбувся</t>
   </si>
   <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>Аукціон завершено. Договір підписано</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>active_rectification</t>
-  </si>
-  <si>
-    <t>active_qualification</t>
-  </si>
-  <si>
-    <t>active_awarded</t>
-  </si>
-  <si>
-    <t>pending_payment</t>
-  </si>
-  <si>
-    <t>pending_admission</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
     <t>active_enquiry</t>
-  </si>
-  <si>
-    <t>Період редагування</t>
-  </si>
-  <si>
-    <t>Очікується опублікування протоколу</t>
-  </si>
-  <si>
-    <t>Очікується підписання договору</t>
-  </si>
-  <si>
-    <t>Очікується оплата</t>
-  </si>
-  <si>
-    <t>Очікується рішення про викуп</t>
-  </si>
-  <si>
-    <t>Аукціон відмінено</t>
   </si>
   <si>
     <t>Період уточнень</t>
@@ -108,8 +100,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,15 +115,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -155,88 +138,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблиця1" displayName="Таблиця1" ref="A1:F12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
-  <autoFilter ref="A1:F12"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Sequence" dataDxfId="7"/>
-    <tableColumn id="7" name="id" dataDxfId="0"/>
-    <tableColumn id="2" name="Stage Code" dataDxfId="6"/>
-    <tableColumn id="3" name="Stage Name" dataDxfId="5"/>
-    <tableColumn id="4" name="Folded in Kanban" dataDxfId="4"/>
-    <tableColumn id="5" name="Closing Stage" dataDxfId="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,9 +194,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,10 +228,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,10 +262,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -519,43 +437,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -563,222 +472,186 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>